--- a/BillingCentre-DataDriven/src/test/java/Reports/Driver_Medmal_S10 2018_Medmal Template_Iteration 01.xlsx
+++ b/BillingCentre-DataDriven/src/test/java/Reports/Driver_Medmal_S10 2018_Medmal Template_Iteration 01.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="16" firstSheet="10" windowHeight="7980" windowWidth="14808" xWindow="240" yWindow="108"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7980" firstSheet="10" activeTab="16"/>
   </bookViews>
   <sheets>
-    <sheet name="PHPK1869936" r:id="rId1" sheetId="6"/>
-    <sheet name="PHPK1869934" r:id="rId2" sheetId="7"/>
-    <sheet name="PHPK1869932" r:id="rId3" sheetId="8"/>
-    <sheet name="PHPK1869929" r:id="rId4" sheetId="5"/>
-    <sheet name="PPK1869915" r:id="rId5" sheetId="4"/>
-    <sheet name="PPK1869905" r:id="rId6" sheetId="3"/>
-    <sheet name="PHPK1869902" r:id="rId7" sheetId="2"/>
-    <sheet name="PHPK1869957" r:id="rId8" sheetId="17"/>
-    <sheet name="PHPK1869955" r:id="rId9" sheetId="16"/>
-    <sheet name="PHPK1869952" r:id="rId10" sheetId="15"/>
-    <sheet name="PHPK1869945" r:id="rId11" sheetId="14"/>
-    <sheet name="PHPK1869928" r:id="rId12" sheetId="9"/>
-    <sheet name="PHPK1869927" r:id="rId13" sheetId="10"/>
-    <sheet name="PHPK1869913" r:id="rId14" sheetId="11"/>
-    <sheet name="PHPK1869908" r:id="rId15" sheetId="12"/>
-    <sheet name="PHPK1869903" r:id="rId16" sheetId="13"/>
-    <sheet name="Results" r:id="rId17" sheetId="1"/>
+    <sheet name="PHPK1869936" sheetId="6" r:id="rId1"/>
+    <sheet name="PHPK1869934" sheetId="7" r:id="rId2"/>
+    <sheet name="PHPK1869932" sheetId="8" r:id="rId3"/>
+    <sheet name="PHPK1869929" sheetId="5" r:id="rId4"/>
+    <sheet name="PPK1869915" sheetId="4" r:id="rId5"/>
+    <sheet name="PPK1869905" sheetId="3" r:id="rId6"/>
+    <sheet name="PHPK1869902" sheetId="2" r:id="rId7"/>
+    <sheet name="PHPK1869957" sheetId="17" r:id="rId8"/>
+    <sheet name="PHPK1869955" sheetId="16" r:id="rId9"/>
+    <sheet name="PHPK1869952" sheetId="15" r:id="rId10"/>
+    <sheet name="PHPK1869945" sheetId="14" r:id="rId11"/>
+    <sheet name="PHPK1869928" sheetId="9" r:id="rId12"/>
+    <sheet name="PHPK1869927" sheetId="10" r:id="rId13"/>
+    <sheet name="PHPK1869913" sheetId="11" r:id="rId14"/>
+    <sheet name="PHPK1869908" sheetId="12" r:id="rId15"/>
+    <sheet name="PHPK1869903" sheetId="13" r:id="rId16"/>
+    <sheet name="Results" sheetId="1" r:id="rId17"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -35,7 +35,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A17" shapeId="0">
+    <comment ref="A17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="110">
   <si>
     <t>Policy Number</t>
   </si>
@@ -384,30 +384,6 @@
   </si>
   <si>
     <t>RI_Endorsement</t>
-  </si>
-  <si>
-    <t>Pending Cancel</t>
-  </si>
-  <si>
-    <t>Written_Premium</t>
-  </si>
-  <si>
-    <t>Tax</t>
-  </si>
-  <si>
-    <t>$60,694.00</t>
-  </si>
-  <si>
-    <t>$767.00</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>$37,116.00</t>
-  </si>
-  <si>
-    <t>$4.10</t>
   </si>
 </sst>
 </file>
@@ -441,7 +417,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -464,36 +440,6 @@
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="55"/>
       </patternFill>
     </fill>
   </fills>
@@ -522,30 +468,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" xfId="0"/>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="8" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="true" borderId="0" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -562,10 +502,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -600,7 +540,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -635,7 +575,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -723,7 +663,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -732,13 +672,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -748,7 +688,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -757,7 +697,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -766,7 +706,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -776,12 +716,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -812,7 +752,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -831,7 +771,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -843,16 +783,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.88671875" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -912,20 +852,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -985,20 +925,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1058,32 +998,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="3" max="3" style="2" width="9.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" style="2" width="9.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="7" max="7" style="2" width="9.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="9" max="9" style="2" width="9.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="9.88671875" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="2"/>
+    <col min="8" max="8" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="2"/>
+    <col min="10" max="10" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1352,30 +1292,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="3" max="3" style="2" width="9.109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="5" max="5" style="2" width="9.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="7" max="9" style="2" width="9.109375" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="11" max="11" style="2" width="9.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="9.109375" style="2"/>
+    <col min="10" max="10" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1567,30 +1507,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.2578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.68359375" collapsed="true"/>
-    <col min="5" max="5" style="2" width="9.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="7" max="7" style="2" width="9.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="9" max="11" style="2" width="9.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="2"/>
+    <col min="8" max="8" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
@@ -1600,12 +1540,6 @@
       <c r="B1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1614,12 +1548,6 @@
       <c r="B2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>116</v>
-      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1628,12 +1556,6 @@
       <c r="B3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1904,30 +1826,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="9.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.2578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.68359375" collapsed="true"/>
-    <col min="5" max="5" style="2" width="9.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="7" max="7" style="2" width="9.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="9" max="11" style="2" width="9.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" style="2"/>
+    <col min="8" max="8" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -1937,12 +1857,6 @@
       <c r="B1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1951,12 +1865,6 @@
       <c r="B2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -1965,12 +1873,6 @@
       <c r="B3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" t="s">
-        <v>115</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -2175,28 +2077,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="17.2578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.68359375" collapsed="true"/>
-    <col min="5" max="5" style="2" width="9.109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="7" max="11" style="2" width="9.109375" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="13" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="2"/>
+    <col min="4" max="4" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="2"/>
+    <col min="6" max="6" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="9.109375" style="2"/>
+    <col min="12" max="12" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -2206,12 +2108,6 @@
       <c r="B1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -2220,12 +2116,6 @@
       <c r="B2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -2234,9 +2124,6 @@
       <c r="B3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C3" t="s">
-        <v>112</v>
-      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -2403,37 +2290,37 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="10.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="14.109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="44.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="19.44140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="5.5546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="13.6640625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="2" width="6.44140625" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="2" width="11.0" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="2" width="12.44140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="2" width="25.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="2" width="10.0" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="2" width="12.5546875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="2" width="15.88671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" style="2" width="17.6640625" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="2" width="10.5546875" collapsed="true"/>
-    <col min="16" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="10.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
@@ -3237,23 +3124,23 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="2" width="9.109375" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.88671875" collapsed="true"/>
-    <col min="3" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3313,20 +3200,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" style="2" width="9.109375" collapsed="true"/>
+    <col min="1" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3386,21 +3273,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3502,21 +3389,21 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -3618,20 +3505,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="9.88671875" collapsed="true"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3691,22 +3578,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3838,20 +3725,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3911,20 +3798,20 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="10.88671875" collapsed="true"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -3984,7 +3871,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
